--- a/python/Human Design/data/channels.xlsx
+++ b/python/Human Design/data/channels.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frederictaieb/Desktop/Python/Human Design/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DDBA593-9134-EE47-8405-6C9F6E645868}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CBF9CE-D845-4C4D-BA04-DA8150F103FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12380" yWindow="6460" windowWidth="27240" windowHeight="16440" xr2:uid="{A3AE8A33-78E0-9249-8F52-66CD3E58D67C}"/>
   </bookViews>
@@ -30,9 +30,6 @@
     <t>Channel</t>
   </si>
   <si>
-    <t>FR</t>
-  </si>
-  <si>
     <t>01 - 08</t>
   </si>
   <si>
@@ -689,6 +686,9 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>Description_FR</t>
   </si>
 </sst>
 </file>
@@ -1066,631 +1066,631 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" t="s">
         <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" t="s">
         <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" t="s">
         <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" t="s">
         <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" t="s">
         <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" t="s">
         <v>30</v>
-      </c>
-      <c r="E7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" t="s">
         <v>35</v>
-      </c>
-      <c r="E8" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" t="s">
         <v>40</v>
-      </c>
-      <c r="E9" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" t="s">
         <v>49</v>
-      </c>
-      <c r="E11" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" t="s">
         <v>53</v>
-      </c>
-      <c r="E12" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" t="s">
         <v>58</v>
-      </c>
-      <c r="E13" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" t="s">
         <v>63</v>
-      </c>
-      <c r="E14" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" t="s">
         <v>68</v>
-      </c>
-      <c r="E15" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" t="s">
         <v>73</v>
-      </c>
-      <c r="E16" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" t="s">
         <v>78</v>
-      </c>
-      <c r="E17" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" t="s">
         <v>83</v>
-      </c>
-      <c r="E18" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" t="s">
         <v>88</v>
-      </c>
-      <c r="E19" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" t="s">
         <v>91</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" t="s">
         <v>94</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" t="s">
         <v>99</v>
-      </c>
-      <c r="E22" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" t="s">
         <v>104</v>
-      </c>
-      <c r="E23" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" t="s">
         <v>109</v>
-      </c>
-      <c r="E24" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" t="s">
         <v>114</v>
-      </c>
-      <c r="E25" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" t="s">
         <v>119</v>
-      </c>
-      <c r="E26" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" t="s">
         <v>124</v>
-      </c>
-      <c r="E27" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" t="s">
         <v>129</v>
-      </c>
-      <c r="E28" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" t="s">
         <v>134</v>
-      </c>
-      <c r="E29" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" t="s">
         <v>139</v>
-      </c>
-      <c r="E30" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" t="s">
         <v>142</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E31" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" t="s">
         <v>147</v>
-      </c>
-      <c r="E32" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="E33" t="s">
         <v>152</v>
-      </c>
-      <c r="E33" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="E34" t="s">
         <v>157</v>
-      </c>
-      <c r="E34" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="E35" t="s">
         <v>162</v>
-      </c>
-      <c r="E35" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="E36" t="s">
         <v>167</v>
-      </c>
-      <c r="E36" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="E37" t="s">
         <v>172</v>
-      </c>
-      <c r="E37" t="s">
-        <v>173</v>
       </c>
     </row>
   </sheetData>
